--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="78" documentId="11_2B59D2BFD3A0D6623BB83B115953F8F24F5BFCDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B831609-1080-47B3-8D88-110D8219CC49}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be3bb2cb17a341b9/Documents/GitHub/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_2B59D2BFD3A0D6623BB83B115953F8F24F5BFCDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B831609-1080-47B3-8D88-110D8219CC49}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_2B59D2BFD3A0D6623BB83B115953F8F24F5BFCDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FA459BA-A02E-4575-ABF1-27B32837BBCD}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t xml:space="preserve">galarcon@mazakcorp.com </t>
   </si>
@@ -234,6 +234,96 @@
   </si>
   <si>
     <t>previos</t>
+  </si>
+  <si>
+    <t>ALARCON APATIGA GUSTAVO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>FERNANDEZ ROSALES FRANCISCO ELIAS</t>
+  </si>
+  <si>
+    <t>VILLARREAL GONZALEZ LUIS MARIO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ DIAZ HERNAN RODOLFO</t>
+  </si>
+  <si>
+    <t>MEDELLIN ARAUJO JOSE DE JESUS</t>
+  </si>
+  <si>
+    <t>RENTERIA OCHOA MARIO ANTONIO</t>
+  </si>
+  <si>
+    <t>MATA GARCIA VICENTE ENRIQUE</t>
+  </si>
+  <si>
+    <t>ZARATE SOTO HECTOR</t>
+  </si>
+  <si>
+    <t>CHAPA MARTINEZ MOIRA YARED</t>
+  </si>
+  <si>
+    <t>ALATORRE ZAPATA JESUS EMILIO</t>
+  </si>
+  <si>
+    <t>ROSALES MENDOZA JUAN MARTIN</t>
+  </si>
+  <si>
+    <t>HERNANDEZ ZAVALA CESAR JESUS</t>
+  </si>
+  <si>
+    <t>DELGADO MORALES ELIZABETH</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CARMONA LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t>AGUILAR CASTRO IVAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>HAROS ARAUJO ABNER ABEL</t>
+  </si>
+  <si>
+    <t>VIOLANTE AYUB CARLA</t>
+  </si>
+  <si>
+    <t>CERECEDO MAR LUIS EVERARDO</t>
+  </si>
+  <si>
+    <t>CARMONA GARCIA JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>CARRERA MELENDEZ MAURICIO ELIUD</t>
+  </si>
+  <si>
+    <t>SERRANO SANCHEZ MARIO ALBERTO</t>
+  </si>
+  <si>
+    <t>ZAPATA FERNANDEZ ELIUD EMILIO</t>
+  </si>
+  <si>
+    <t>CONTRERAS JUAREZ MONICA LIZETH</t>
+  </si>
+  <si>
+    <t>MORENO CEGUEDA BRANDON EDUARDO</t>
+  </si>
+  <si>
+    <t>BELTRAN CORONA DANIEL ELI</t>
+  </si>
+  <si>
+    <t>SANTIAGO ENRIQUEZ FRANCISCO</t>
+  </si>
+  <si>
+    <t>APRESA OLIVO OMAR EDUARDO</t>
+  </si>
+  <si>
+    <t>MANZANO GARCIA MARIO EDMUNDO</t>
+  </si>
+  <si>
+    <t>TAMEZ SALAZAR CESAR OMAR</t>
+  </si>
+  <si>
+    <t>SANTAMARIA FLORES MARIO ALBERTO</t>
   </si>
 </sst>
 </file>
@@ -279,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -313,12 +403,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -326,6 +429,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -633,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +749,7 @@
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -661,7 +766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -677,8 +782,11 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -694,8 +802,11 @@
       <c r="E3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -711,8 +822,11 @@
       <c r="E4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -728,8 +842,11 @@
       <c r="E5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G5" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -745,8 +862,11 @@
       <c r="E6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -762,8 +882,11 @@
       <c r="E7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G7" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -779,8 +902,11 @@
       <c r="E8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -796,8 +922,11 @@
       <c r="E9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G9" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -813,8 +942,11 @@
       <c r="E10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -830,8 +962,11 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G11" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -847,8 +982,11 @@
       <c r="E12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -864,8 +1002,11 @@
       <c r="E13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -881,8 +1022,11 @@
       <c r="E14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G14" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -898,8 +1042,11 @@
       <c r="E15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G15" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -915,8 +1062,11 @@
       <c r="E16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G16" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -932,8 +1082,11 @@
       <c r="E17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G17" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -949,8 +1102,11 @@
       <c r="E18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -966,8 +1122,11 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G19" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -983,8 +1142,11 @@
       <c r="E20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1000,8 +1162,11 @@
       <c r="E21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G21" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1017,8 +1182,11 @@
       <c r="E22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G22" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1034,8 +1202,11 @@
       <c r="E23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1051,8 +1222,11 @@
       <c r="E24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G24" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1068,8 +1242,11 @@
       <c r="E25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G25" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1085,8 +1262,11 @@
       <c r="E26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G26" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1102,8 +1282,11 @@
       <c r="E27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G27" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1119,8 +1302,11 @@
       <c r="E28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G28" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1136,8 +1322,11 @@
       <c r="E29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G29" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1153,8 +1342,11 @@
       <c r="E30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G30" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1169,6 +1361,9 @@
       </c>
       <c r="E31" t="s">
         <v>62</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
